--- a/medicine/Enfance/Philippe_Kailhenn/Philippe_Kailhenn.xlsx
+++ b/medicine/Enfance/Philippe_Kailhenn/Philippe_Kailhenn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Kailhenn, nom de plume de Philippe Kerneïs, né le 2 juillet 1931 à Angers et mort le 20 mai 2020 à Dreux, est un illustrateur et dessinateur de bande dessinée français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après un an à l'École nationale supérieure des arts décoratifs de Paris[1], Philippe Kailhenn devient dessinateur dans le domaine de la communication à la fin des années 1950[2]. C'est cependant au milieu de la décennie suivante que son expression graphique trouve sa forme personnelle, inspirée par l'imagerie populaire[3].
-En 1971, il rejoint l'équipe d'illustrateurs du magazine Okapi nouvellement créé par le groupe Bayard presse, avec lequel il travaille régulièrement pendant une douzaine d'années[4]. Sa création la plus marquante durant cette période est une bande dessinée dont le scénario original est de Colette Tournès : Les Barneidor[5]. L'univers imaginaire que les auteurs construisent avec réussite tout au long des quelque 250 planches de cette série est une sorte de fantaisie sur le mode des Voyages extraordinaires de Jules Verne : on y retrouve les effets décoratifs ou de gravure dans le dessin, tandis que l'esprit éducatif et documentaire qui prévaut à Okapi est transformé par les inventions récréatives du scénario. La série disparaît toutefois à la suite de changements successifs dans le format des histoires et dans la direction du journal, sans avoir pu toucher d'autres lecteurs que ceux d'Okapi.
-Philippe Kailhenn se fait plus rare dans la presse pendant les années 1980 et 1990. Son premier livre, Le Pays des robots, est publié en 1981 au Japon dans la collection « Images originales de France » de l'éditeur Emile-Kan. Il réalise également des ex-libris, des tampons[6], des cartes postales… Fasciné depuis longtemps par les alphabets, il conçoit « à l'usage des petits curieux d'autres cultures »[7] un projet de livres illustrés bilingues sous une forme originale entre la bande dessinée et l'imagier : deux albums seulement paraissent en 1994 chez Syros, consacrés aux kanji et au cyrillique.
-Il est finalement revenu à la bande dessinée en 2006 avec une nouvelle série, Folalié, le chevalier au scotère d'argent[8], qui semble être passée inaperçue : en présentant une exposition de ses dessins en 2011, Philippe Kailhenn s'est posé en observateur amusé de sa propre disparition[9].
-Un faire-part paru dans Le Monde du 19 décembre 2020 annonce que Philippe Kerneïs, dit Kailhenn, est décédé le 20 mai 2020. Il est mort à Dreux[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un an à l'École nationale supérieure des arts décoratifs de Paris, Philippe Kailhenn devient dessinateur dans le domaine de la communication à la fin des années 1950. C'est cependant au milieu de la décennie suivante que son expression graphique trouve sa forme personnelle, inspirée par l'imagerie populaire.
+En 1971, il rejoint l'équipe d'illustrateurs du magazine Okapi nouvellement créé par le groupe Bayard presse, avec lequel il travaille régulièrement pendant une douzaine d'années. Sa création la plus marquante durant cette période est une bande dessinée dont le scénario original est de Colette Tournès : Les Barneidor. L'univers imaginaire que les auteurs construisent avec réussite tout au long des quelque 250 planches de cette série est une sorte de fantaisie sur le mode des Voyages extraordinaires de Jules Verne : on y retrouve les effets décoratifs ou de gravure dans le dessin, tandis que l'esprit éducatif et documentaire qui prévaut à Okapi est transformé par les inventions récréatives du scénario. La série disparaît toutefois à la suite de changements successifs dans le format des histoires et dans la direction du journal, sans avoir pu toucher d'autres lecteurs que ceux d'Okapi.
+Philippe Kailhenn se fait plus rare dans la presse pendant les années 1980 et 1990. Son premier livre, Le Pays des robots, est publié en 1981 au Japon dans la collection « Images originales de France » de l'éditeur Emile-Kan. Il réalise également des ex-libris, des tampons, des cartes postales… Fasciné depuis longtemps par les alphabets, il conçoit « à l'usage des petits curieux d'autres cultures » un projet de livres illustrés bilingues sous une forme originale entre la bande dessinée et l'imagier : deux albums seulement paraissent en 1994 chez Syros, consacrés aux kanji et au cyrillique.
+Il est finalement revenu à la bande dessinée en 2006 avec une nouvelle série, Folalié, le chevalier au scotère d'argent, qui semble être passée inaperçue : en présentant une exposition de ses dessins en 2011, Philippe Kailhenn s'est posé en observateur amusé de sa propre disparition.
+Un faire-part paru dans Le Monde du 19 décembre 2020 annonce que Philippe Kerneïs, dit Kailhenn, est décédé le 20 mai 2020. Il est mort à Dreux.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livre et album illustré
-Joseph Handler, plusieurs illustrateurs, Le Livre de la santé, vol. 5, 6, 10, Monte Carlo, André Sauret, 1967
+          <t>Livre et album illustré</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph Handler, plusieurs illustrateurs, Le Livre de la santé, vol. 5, 6, 10, Monte Carlo, André Sauret, 1967
 Colette Tournès (scénario), Les Aventures des Barneidor : L'Île de la Momie, Paris, Centurion, coll. « Okapi », 1974
 James E. Seidelman, Grace Mintonye, 13 illustrators and you, The 14th Dragon, 2e édition, New York, Harlin Quist, 1977  (ISBN 0-8252-8912-2)
 Le Pays des robots (ロボット の くに, Robotto no kuni) (trad. Tsuchiya Masao), Tokyo, Emile-Kan, 1981  (ISBN 4-87150-011-X)
@@ -562,9 +581,43 @@
 Henri Tincq Les Génies du christianisme : Histoires de prophètes, de pécheurs et de saints, Paris, Plon, 1999  (ISBN 2-259-19154-1)
 Folalié, le chevalier au scotère d'argent
 Le Trésor de Corcodème, avec Pierre Coré (co-scénariste), Champigny-sur-Marne, Lito, 2006  (ISBN 2-244-49711-9)
-Les Damoiselles du Loufe, Champigny-sur-Marne, Lito, 2006  (ISBN 2-244-49717-8)
-Revue (Bayard presse)
-Okapi, Colette Tournès (scénario), Les Aventures des Barneidor
+Les Damoiselles du Loufe, Champigny-sur-Marne, Lito, 2006  (ISBN 2-244-49717-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Kailhenn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Kailhenn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Revue (Bayard presse)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Okapi, Colette Tournès (scénario), Les Aventures des Barneidor
 Les Mille Récits d'Okapi : La Flûte de Raskath, no 17, 15 juillet 1972, 6 planches
 L'Île de la Momie, feuilleton en 10 épisodes, nos 30, 34, 37, 39, 43, 46-50, février-décembre 1973, 60 planches
 Les 7 Tombeaux d'Amiraseth, feuilleton en 12 épisodes, nos 68-74, 76, 78-81, septembre 1974-avril 1975, 60 planches
@@ -605,9 +658,43 @@
 Supplément Astrapan : Le calendrier de l'Europe, no 341, 1er janvier 1993
 J'aime lire, illustrations
 Jean Alessandrini, Le Scarabus, no 87, avril 1984
-Jean Alessandrini, L'Heure du fou, no 170, mars 1991
-Varia
-Réalisation de logos, tampons, ex-libris[11].
+Jean Alessandrini, L'Heure du fou, no 170, mars 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Kailhenn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Kailhenn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Varia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Réalisation de logos, tampons, ex-libris.
 Le Double Chevron, Édition spéciale : Les Aventures de Double Chevron, Paris, Service de Presse de Citroën, no 15, décembre 1968, 20 planches
 40 affiches pour Lanvin, Axe publicité, 1969
 Jonas 2.000, tapisserie D.M.C., no V.219, 1972
